--- a/experiments/programs/SeeDB_python/DiViz_airbnb/room_type='Private_room'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/room_type='Private_room'.xlsx
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.1761264591473983</v>
+        <v>0.17661810447081239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>0.16224446364463341</v>
+        <v>0.16198058484238301</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>0.14971380208905691</v>
+        <v>0.15567084404083059</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>0.1208943508100985</v>
+        <v>0.1207780252735563</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,41 +550,41 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>0.1015687833757274</v>
+        <v>0.1014490620488097</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>9.6810699803061173E-2</v>
+        <v>9.8587774233526326E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>9.5935461664294466E-2</v>
+        <v>9.6737413353859991E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>9.2238524575575354E-2</v>
+        <v>9.3614242833287911E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>9.1365862842205714E-2</v>
+        <v>9.1299042883029438E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>6.9586953405041577E-2</v>
+        <v>6.9580203600906707E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>6.4184333766511836E-2</v>
+        <v>6.4225270885973254E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="D16">
-        <v>6.3830313075017839E-2</v>
+        <v>6.3782019885832653E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>5.526020103313567E-2</v>
+        <v>5.649619251745662E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <v>5.3329116154277247E-2</v>
+        <v>5.3533524324510688E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>5.0351324870553479E-2</v>
+        <v>5.0339298258716303E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>4.496772605998333E-2</v>
+        <v>4.4955345111188247E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="D22">
-        <v>4.1957234925547343E-2</v>
+        <v>4.1963145071851581E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <v>3.7558165698723167E-2</v>
+        <v>3.7553009023977117E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>3.379101916111063E-2</v>
+        <v>3.3814328562035298E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="D26">
-        <v>3.2511108378320518E-2</v>
+        <v>3.2493124442270038E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>11</v>
       </c>
       <c r="D27">
-        <v>3.0910535354984989E-2</v>
+        <v>3.0842683863133501E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
